--- a/data/pca/factorExposure/factorExposure_2014-10-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.01930495018149796</v>
+        <v>0.01804554889592843</v>
       </c>
       <c r="C2">
-        <v>-0.1002245986719219</v>
+        <v>-0.07438085379081114</v>
       </c>
       <c r="D2">
-        <v>0.02230656250679958</v>
+        <v>0.02387891079400129</v>
       </c>
       <c r="E2">
-        <v>-0.1707696966497502</v>
+        <v>-0.06084874923075073</v>
       </c>
       <c r="F2">
-        <v>-0.2042059190035267</v>
+        <v>-0.1616478458359861</v>
       </c>
       <c r="G2">
-        <v>-0.09368340138146859</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.03521351840749921</v>
+      </c>
+      <c r="H2">
+        <v>0.0509574139597759</v>
+      </c>
+      <c r="I2">
+        <v>-0.0138000334807318</v>
+      </c>
+      <c r="J2">
+        <v>-0.1888806432826806</v>
+      </c>
+      <c r="K2">
+        <v>0.1023625508497685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.0465658760388046</v>
+        <v>0.02239240683840328</v>
       </c>
       <c r="C4">
-        <v>-0.161141157416166</v>
+        <v>-0.1526694596607049</v>
       </c>
       <c r="D4">
-        <v>-0.02113266792156829</v>
+        <v>0.05539343734805835</v>
       </c>
       <c r="E4">
-        <v>-0.08504564262683431</v>
+        <v>0.03757030057753605</v>
       </c>
       <c r="F4">
-        <v>0.05105501685705031</v>
+        <v>-0.08688735010801643</v>
       </c>
       <c r="G4">
-        <v>-0.01724249582735946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01906553117658007</v>
+      </c>
+      <c r="H4">
+        <v>0.110871547642621</v>
+      </c>
+      <c r="I4">
+        <v>0.007885351659569072</v>
+      </c>
+      <c r="J4">
+        <v>-0.1492729191615726</v>
+      </c>
+      <c r="K4">
+        <v>-0.06858284398365967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.03947339686089107</v>
+        <v>0.04065260131783735</v>
       </c>
       <c r="C6">
-        <v>-0.06641437088485062</v>
+        <v>-0.08215272224711108</v>
       </c>
       <c r="D6">
-        <v>-0.03108870289597827</v>
+        <v>0.01783804510630166</v>
       </c>
       <c r="E6">
-        <v>-0.07259454065836726</v>
+        <v>-0.03971774256680492</v>
       </c>
       <c r="F6">
-        <v>-0.01457930510669293</v>
+        <v>-0.0491764232175776</v>
       </c>
       <c r="G6">
-        <v>0.01269648795693038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.03842386166425843</v>
+      </c>
+      <c r="H6">
+        <v>0.03234441853990101</v>
+      </c>
+      <c r="I6">
+        <v>-0.08306426097040331</v>
+      </c>
+      <c r="J6">
+        <v>-0.04563347054036834</v>
+      </c>
+      <c r="K6">
+        <v>0.04002604324683432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.009795813939047514</v>
+        <v>0.01278183961001763</v>
       </c>
       <c r="C7">
-        <v>-0.05225736806078977</v>
+        <v>-0.06701568808351611</v>
       </c>
       <c r="D7">
-        <v>-0.007386976408579366</v>
+        <v>0.01661458666821496</v>
       </c>
       <c r="E7">
-        <v>-0.07152245946708526</v>
+        <v>0.02256700906400532</v>
       </c>
       <c r="F7">
-        <v>0.0133180760787213</v>
+        <v>-0.02030285182335023</v>
       </c>
       <c r="G7">
-        <v>-0.02816065142083225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0569361953436613</v>
+      </c>
+      <c r="H7">
+        <v>0.1022720348449858</v>
+      </c>
+      <c r="I7">
+        <v>-0.01553277220279975</v>
+      </c>
+      <c r="J7">
+        <v>-0.04314075862462637</v>
+      </c>
+      <c r="K7">
+        <v>0.006595012129493374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.002181776571677705</v>
+        <v>-0.001595031087281671</v>
       </c>
       <c r="C8">
-        <v>-0.07040193620758474</v>
+        <v>-0.06744322528086859</v>
       </c>
       <c r="D8">
-        <v>-0.01721509659567836</v>
+        <v>0.03888202568930873</v>
       </c>
       <c r="E8">
-        <v>-0.08638617810126611</v>
+        <v>-0.001495055023322487</v>
       </c>
       <c r="F8">
-        <v>-0.02349844793222856</v>
+        <v>-0.06502109397924397</v>
       </c>
       <c r="G8">
-        <v>-0.05907583153416673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02268922890585244</v>
+      </c>
+      <c r="H8">
+        <v>0.05545463794106845</v>
+      </c>
+      <c r="I8">
+        <v>0.000849461210761862</v>
+      </c>
+      <c r="J8">
+        <v>-0.01142175487679857</v>
+      </c>
+      <c r="K8">
+        <v>-0.007694307546532576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.02580105452028591</v>
+        <v>0.01487997804884857</v>
       </c>
       <c r="C9">
-        <v>-0.1338429064580104</v>
+        <v>-0.1158880662899513</v>
       </c>
       <c r="D9">
-        <v>-0.02324312924004895</v>
+        <v>0.03702681859511696</v>
       </c>
       <c r="E9">
-        <v>-0.05250863254967623</v>
+        <v>0.007771651240058165</v>
       </c>
       <c r="F9">
-        <v>0.02722177940410571</v>
+        <v>-0.04027126696119899</v>
       </c>
       <c r="G9">
-        <v>0.02063771252682025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.008945419375887196</v>
+      </c>
+      <c r="H9">
+        <v>0.09549141057335042</v>
+      </c>
+      <c r="I9">
+        <v>-0.02220804974468962</v>
+      </c>
+      <c r="J9">
+        <v>-0.07012739226620926</v>
+      </c>
+      <c r="K9">
+        <v>-0.05361042056866601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.26759203922563</v>
+        <v>0.2501338034386508</v>
       </c>
       <c r="C10">
-        <v>0.1292620384929195</v>
+        <v>0.103698223549126</v>
       </c>
       <c r="D10">
-        <v>0.02187079576185547</v>
+        <v>-0.002771142650720307</v>
       </c>
       <c r="E10">
-        <v>0.03149854453486661</v>
+        <v>-0.01165865613763822</v>
       </c>
       <c r="F10">
-        <v>0.03008453060846335</v>
+        <v>0.002895433216291494</v>
       </c>
       <c r="G10">
-        <v>0.02301214306800797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01452590168409181</v>
+      </c>
+      <c r="H10">
+        <v>0.06484833168460372</v>
+      </c>
+      <c r="I10">
+        <v>0.1734279192960494</v>
+      </c>
+      <c r="J10">
+        <v>0.08459686868255571</v>
+      </c>
+      <c r="K10">
+        <v>-0.04328632371410566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.01581574985362406</v>
+        <v>0.01639589208393203</v>
       </c>
       <c r="C11">
-        <v>-0.06576018305104174</v>
+        <v>-0.08229786576283213</v>
       </c>
       <c r="D11">
-        <v>-0.01664296609720239</v>
+        <v>0.02959724718785521</v>
       </c>
       <c r="E11">
-        <v>-0.03166442079629763</v>
+        <v>0.01098552975187543</v>
       </c>
       <c r="F11">
-        <v>0.05685903824504009</v>
+        <v>0.0004193282090571768</v>
       </c>
       <c r="G11">
-        <v>0.03734954863027169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02341399653378464</v>
+      </c>
+      <c r="H11">
+        <v>0.0346805873894187</v>
+      </c>
+      <c r="I11">
+        <v>-0.009037444425819899</v>
+      </c>
+      <c r="J11">
+        <v>0.0328656086897984</v>
+      </c>
+      <c r="K11">
+        <v>-0.03785545664136944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.01298063473586515</v>
+        <v>0.01685425260425457</v>
       </c>
       <c r="C12">
-        <v>-0.06293444624231233</v>
+        <v>-0.06360649732087521</v>
       </c>
       <c r="D12">
-        <v>-0.02076502583198191</v>
+        <v>0.01805638491674199</v>
       </c>
       <c r="E12">
-        <v>-0.01734822812807279</v>
+        <v>-0.01548883230163034</v>
       </c>
       <c r="F12">
-        <v>0.0266901898162076</v>
+        <v>0.004824468137890476</v>
       </c>
       <c r="G12">
-        <v>0.06655275779502007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.03010178336051222</v>
+      </c>
+      <c r="H12">
+        <v>0.03492965700406123</v>
+      </c>
+      <c r="I12">
+        <v>-0.009977175035196066</v>
+      </c>
+      <c r="J12">
+        <v>0.01143190478052446</v>
+      </c>
+      <c r="K12">
+        <v>-0.04186494055164917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.02788520834560449</v>
+        <v>0.005892927019714139</v>
       </c>
       <c r="C13">
-        <v>-0.1009273375583674</v>
+        <v>-0.1123790409772899</v>
       </c>
       <c r="D13">
-        <v>-0.03886823831372414</v>
+        <v>0.03458254041951232</v>
       </c>
       <c r="E13">
-        <v>-0.1301041746836516</v>
+        <v>-0.1089945319870268</v>
       </c>
       <c r="F13">
-        <v>0.03188407541801394</v>
+        <v>-0.1272811885489623</v>
       </c>
       <c r="G13">
-        <v>0.1163911745183611</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1071690485063221</v>
+      </c>
+      <c r="H13">
+        <v>0.1170638908553405</v>
+      </c>
+      <c r="I13">
+        <v>0.207782324165412</v>
+      </c>
+      <c r="J13">
+        <v>0.1744610467071937</v>
+      </c>
+      <c r="K13">
+        <v>0.08436231862839938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01932527074880315</v>
+        <v>0.01874649284001559</v>
       </c>
       <c r="C14">
-        <v>-0.05743353514471147</v>
+        <v>-0.07380222319942262</v>
       </c>
       <c r="D14">
-        <v>-0.01228813878569996</v>
+        <v>0.03811875121980094</v>
       </c>
       <c r="E14">
-        <v>-0.04592890622784587</v>
+        <v>-0.03878338308257715</v>
       </c>
       <c r="F14">
-        <v>2.06400931652348e-05</v>
+        <v>-0.02422194857718063</v>
       </c>
       <c r="G14">
-        <v>0.04870833935877465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.07558421671740177</v>
+      </c>
+      <c r="H14">
+        <v>0.2147717089683385</v>
+      </c>
+      <c r="I14">
+        <v>-0.04474452840367946</v>
+      </c>
+      <c r="J14">
+        <v>0.1201233354668419</v>
+      </c>
+      <c r="K14">
+        <v>0.1282052806492533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.00972273245298943</v>
+        <v>0.001351556981410363</v>
       </c>
       <c r="C15">
-        <v>-0.08284246210900986</v>
+        <v>-0.07828761049693919</v>
       </c>
       <c r="D15">
-        <v>-0.01426840825558419</v>
+        <v>0.02764088107273344</v>
       </c>
       <c r="E15">
-        <v>-0.1073497336871597</v>
+        <v>0.007587949369173481</v>
       </c>
       <c r="F15">
-        <v>0.01268361011926624</v>
+        <v>-0.0412861181097588</v>
       </c>
       <c r="G15">
-        <v>0.006515272980665553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.05003114865494433</v>
+      </c>
+      <c r="H15">
+        <v>0.07942313701312584</v>
+      </c>
+      <c r="I15">
+        <v>-0.02887039855126566</v>
+      </c>
+      <c r="J15">
+        <v>0.05251347292971823</v>
+      </c>
+      <c r="K15">
+        <v>0.0005425078297899361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.01713180581286744</v>
+        <v>0.01627786304078987</v>
       </c>
       <c r="C16">
-        <v>-0.06427798306394143</v>
+        <v>-0.06780885595707471</v>
       </c>
       <c r="D16">
-        <v>-0.008142446123457499</v>
+        <v>0.02090675106685639</v>
       </c>
       <c r="E16">
-        <v>-0.02339578670667359</v>
+        <v>0.00525100853273381</v>
       </c>
       <c r="F16">
-        <v>0.02956275303219</v>
+        <v>-0.001151589894924663</v>
       </c>
       <c r="G16">
-        <v>0.03627482369711468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.0201636707342392</v>
+      </c>
+      <c r="H16">
+        <v>0.02685400387220862</v>
+      </c>
+      <c r="I16">
+        <v>-0.01176414853318253</v>
+      </c>
+      <c r="J16">
+        <v>0.01277493309374751</v>
+      </c>
+      <c r="K16">
+        <v>-0.02763741904826544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.0190422619046512</v>
+        <v>0.01327904404951948</v>
       </c>
       <c r="C20">
-        <v>-0.07705509247035741</v>
+        <v>-0.08291938047486475</v>
       </c>
       <c r="D20">
-        <v>-0.0007289899319278381</v>
+        <v>0.0156698027287758</v>
       </c>
       <c r="E20">
-        <v>-0.05898810817535849</v>
+        <v>0.0290843308419192</v>
       </c>
       <c r="F20">
-        <v>0.06858740502039541</v>
+        <v>-0.009776987748564416</v>
       </c>
       <c r="G20">
-        <v>0.04832483704572836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05407133194628345</v>
+      </c>
+      <c r="H20">
+        <v>0.07221622329885881</v>
+      </c>
+      <c r="I20">
+        <v>-0.02189887533526709</v>
+      </c>
+      <c r="J20">
+        <v>-0.01193505268589213</v>
+      </c>
+      <c r="K20">
+        <v>-0.01218489329521816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.01538862536068221</v>
+        <v>0.01455209895187797</v>
       </c>
       <c r="C21">
-        <v>-0.1016940117615821</v>
+        <v>-0.08468397303993053</v>
       </c>
       <c r="D21">
-        <v>0.02792035839659198</v>
+        <v>0.01994103418998658</v>
       </c>
       <c r="E21">
-        <v>-0.02904422967113866</v>
+        <v>-0.08058199991673273</v>
       </c>
       <c r="F21">
-        <v>-0.03720154463713026</v>
+        <v>-0.02350401704717502</v>
       </c>
       <c r="G21">
-        <v>0.04275901648140268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.001717221930711334</v>
+      </c>
+      <c r="H21">
+        <v>0.1544118093236553</v>
+      </c>
+      <c r="I21">
+        <v>0.03557859196598505</v>
+      </c>
+      <c r="J21">
+        <v>0.0435717602637548</v>
+      </c>
+      <c r="K21">
+        <v>-0.01288910975908058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.05959814529702067</v>
+        <v>0.005717607832259899</v>
       </c>
       <c r="C22">
-        <v>-0.1411276048766944</v>
+        <v>-0.1486569662259564</v>
       </c>
       <c r="D22">
-        <v>0.1150605548146762</v>
+        <v>0.009682618770614614</v>
       </c>
       <c r="E22">
-        <v>-0.2678259085493546</v>
+        <v>0.09211766744225509</v>
       </c>
       <c r="F22">
-        <v>-0.04121431456015816</v>
+        <v>-0.489329926796575</v>
       </c>
       <c r="G22">
-        <v>-0.2939115627444218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.09570321531205986</v>
+      </c>
+      <c r="H22">
+        <v>-0.3215110804567932</v>
+      </c>
+      <c r="I22">
+        <v>0.04796085992735265</v>
+      </c>
+      <c r="J22">
+        <v>0.201419678652871</v>
+      </c>
+      <c r="K22">
+        <v>-0.05604981587888077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.05932302349951991</v>
+        <v>0.01070881281302402</v>
       </c>
       <c r="C23">
-        <v>-0.1417169432235968</v>
+        <v>-0.1523501240245021</v>
       </c>
       <c r="D23">
-        <v>0.1149106243707501</v>
+        <v>0.008081697698954652</v>
       </c>
       <c r="E23">
-        <v>-0.2644815479583592</v>
+        <v>0.08762965865862345</v>
       </c>
       <c r="F23">
-        <v>-0.04064319209654315</v>
+        <v>-0.4742625343549775</v>
       </c>
       <c r="G23">
-        <v>-0.2918856351291504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.09106711966233978</v>
+      </c>
+      <c r="H23">
+        <v>-0.2986366244838228</v>
+      </c>
+      <c r="I23">
+        <v>0.04061351092967259</v>
+      </c>
+      <c r="J23">
+        <v>0.1918587368561031</v>
+      </c>
+      <c r="K23">
+        <v>-0.06205060487065412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.01121482871077303</v>
+        <v>0.01725979557610915</v>
       </c>
       <c r="C24">
-        <v>-0.077254258298227</v>
+        <v>-0.07676979674916096</v>
       </c>
       <c r="D24">
-        <v>-0.03216890256030581</v>
+        <v>0.03471139984886915</v>
       </c>
       <c r="E24">
-        <v>-0.02706175908646488</v>
+        <v>0.007882622880554972</v>
       </c>
       <c r="F24">
-        <v>0.0415188776541568</v>
+        <v>0.001018915502444298</v>
       </c>
       <c r="G24">
-        <v>0.05109019526345039</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02775482458427782</v>
+      </c>
+      <c r="H24">
+        <v>0.04493011622280798</v>
+      </c>
+      <c r="I24">
+        <v>-0.01062702996998606</v>
+      </c>
+      <c r="J24">
+        <v>0.01702856248102161</v>
+      </c>
+      <c r="K24">
+        <v>-0.04115750672538492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.01464952711122691</v>
+        <v>0.02166054277855061</v>
       </c>
       <c r="C25">
-        <v>-0.07016813256251876</v>
+        <v>-0.07371194669081821</v>
       </c>
       <c r="D25">
-        <v>-0.008678984290267582</v>
+        <v>0.0232232585910991</v>
       </c>
       <c r="E25">
-        <v>-0.02336960969557131</v>
+        <v>0.009374482164964179</v>
       </c>
       <c r="F25">
-        <v>0.04777440955528242</v>
+        <v>-0.001398394651138597</v>
       </c>
       <c r="G25">
-        <v>0.04760066422171051</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02890287453664507</v>
+      </c>
+      <c r="H25">
+        <v>0.03640717091367136</v>
+      </c>
+      <c r="I25">
+        <v>0.001182418114992839</v>
+      </c>
+      <c r="J25">
+        <v>0.02974776506149956</v>
+      </c>
+      <c r="K25">
+        <v>-0.03034199226888186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.0167635607425961</v>
+        <v>0.02469827952935453</v>
       </c>
       <c r="C26">
-        <v>-0.05682806329038512</v>
+        <v>-0.06421335599413569</v>
       </c>
       <c r="D26">
-        <v>-0.03226615527348788</v>
+        <v>0.05204530691725921</v>
       </c>
       <c r="E26">
-        <v>-0.02998854766449997</v>
+        <v>0.001730112894734399</v>
       </c>
       <c r="F26">
-        <v>-0.003525158503941397</v>
+        <v>0.006083080473349592</v>
       </c>
       <c r="G26">
-        <v>0.03184755545274583</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.002284843779699466</v>
+      </c>
+      <c r="H26">
+        <v>0.1049052750804128</v>
+      </c>
+      <c r="I26">
+        <v>-0.04829906906213156</v>
+      </c>
+      <c r="J26">
+        <v>-0.08636290102000639</v>
+      </c>
+      <c r="K26">
+        <v>-0.07505500060588603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3461814917566488</v>
+        <v>0.3186720490049114</v>
       </c>
       <c r="C28">
-        <v>0.136080337324998</v>
+        <v>0.1153659093291386</v>
       </c>
       <c r="D28">
-        <v>0.02096168756767607</v>
+        <v>-0.02687654087511987</v>
       </c>
       <c r="E28">
-        <v>0.1056964136553838</v>
+        <v>-0.005744524245743797</v>
       </c>
       <c r="F28">
-        <v>-0.03261393732235413</v>
+        <v>-0.008927697794272556</v>
       </c>
       <c r="G28">
-        <v>0.01439385156599167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1163383878487041</v>
+      </c>
+      <c r="H28">
+        <v>0.07837446027382923</v>
+      </c>
+      <c r="I28">
+        <v>0.1896048159137826</v>
+      </c>
+      <c r="J28">
+        <v>-0.0493691763148968</v>
+      </c>
+      <c r="K28">
+        <v>-0.001218896641067201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.02112020672051973</v>
+        <v>0.01397203776596581</v>
       </c>
       <c r="C29">
-        <v>-0.05501154513671126</v>
+        <v>-0.07621275021111812</v>
       </c>
       <c r="D29">
-        <v>-0.02236533764541885</v>
+        <v>0.04223851683050519</v>
       </c>
       <c r="E29">
-        <v>-0.07537718517555324</v>
+        <v>-0.04500292514723776</v>
       </c>
       <c r="F29">
-        <v>0.02572317010388665</v>
+        <v>-0.04406889267556192</v>
       </c>
       <c r="G29">
-        <v>0.07349153217511847</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1240706193723782</v>
+      </c>
+      <c r="H29">
+        <v>0.304938234175244</v>
+      </c>
+      <c r="I29">
+        <v>-0.05201568679853717</v>
+      </c>
+      <c r="J29">
+        <v>0.1803890008409545</v>
+      </c>
+      <c r="K29">
+        <v>0.241264438896675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.04677200344736196</v>
+        <v>0.0283874864050224</v>
       </c>
       <c r="C30">
-        <v>-0.1737318180167816</v>
+        <v>-0.151103854227356</v>
       </c>
       <c r="D30">
-        <v>-0.03994161629768346</v>
+        <v>0.05027382443885611</v>
       </c>
       <c r="E30">
-        <v>-0.07369869473400401</v>
+        <v>0.01691763033522172</v>
       </c>
       <c r="F30">
-        <v>0.009596433844998151</v>
+        <v>-0.07004960664230607</v>
       </c>
       <c r="G30">
-        <v>-0.03780901927336854</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.009896032282234632</v>
+      </c>
+      <c r="H30">
+        <v>0.0170419636122474</v>
+      </c>
+      <c r="I30">
+        <v>-0.04254092626606842</v>
+      </c>
+      <c r="J30">
+        <v>-0.08492720512546235</v>
+      </c>
+      <c r="K30">
+        <v>-0.02692339063904459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.003913729095203195</v>
+        <v>0.01289235312827782</v>
       </c>
       <c r="C31">
-        <v>-0.0929834586325836</v>
+        <v>-0.09514965452542518</v>
       </c>
       <c r="D31">
-        <v>-0.03538533673834163</v>
+        <v>0.03616941997560645</v>
       </c>
       <c r="E31">
-        <v>0.04892667391175406</v>
+        <v>-0.002615928204720139</v>
       </c>
       <c r="F31">
-        <v>-0.01224366356210964</v>
+        <v>0.01980585740565676</v>
       </c>
       <c r="G31">
-        <v>-0.0004069772526859579</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.05519595793198752</v>
+      </c>
+      <c r="H31">
+        <v>0.0309258010521344</v>
+      </c>
+      <c r="I31">
+        <v>-0.001837485214994759</v>
+      </c>
+      <c r="J31">
+        <v>0.04203867699491939</v>
+      </c>
+      <c r="K31">
+        <v>-0.02749936778720855</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03722897317467969</v>
+        <v>0.02410240549801869</v>
       </c>
       <c r="C32">
-        <v>-0.08309195485132362</v>
+        <v>-0.06519633296968728</v>
       </c>
       <c r="D32">
-        <v>0.0126041389672731</v>
+        <v>0.01723416795796997</v>
       </c>
       <c r="E32">
-        <v>-0.1599730230291492</v>
+        <v>-0.06568942303873347</v>
       </c>
       <c r="F32">
-        <v>-0.04833903036819964</v>
+        <v>-0.1159971792465659</v>
       </c>
       <c r="G32">
-        <v>0.03354015067534014</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.04400901319548317</v>
+      </c>
+      <c r="H32">
+        <v>0.1791529913520997</v>
+      </c>
+      <c r="I32">
+        <v>0.2296078098088056</v>
+      </c>
+      <c r="J32">
+        <v>-0.01889972712440546</v>
+      </c>
+      <c r="K32">
+        <v>0.1859503951540945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.02109201473959977</v>
+        <v>0.01804452510755613</v>
       </c>
       <c r="C33">
-        <v>-0.09146134473843924</v>
+        <v>-0.1090562868933122</v>
       </c>
       <c r="D33">
-        <v>-0.03864535396484824</v>
+        <v>0.03607026909891699</v>
       </c>
       <c r="E33">
-        <v>-0.03749399138802713</v>
+        <v>0.006987790373747804</v>
       </c>
       <c r="F33">
-        <v>0.01200788568085535</v>
+        <v>-0.02586262886342972</v>
       </c>
       <c r="G33">
-        <v>0.02978212389787248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02686765786402737</v>
+      </c>
+      <c r="H33">
+        <v>0.06160022415836002</v>
+      </c>
+      <c r="I33">
+        <v>0.01300585088180483</v>
+      </c>
+      <c r="J33">
+        <v>0.00418746345379883</v>
+      </c>
+      <c r="K33">
+        <v>-0.02515189249537045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.006846543611850026</v>
+        <v>0.01645231148979548</v>
       </c>
       <c r="C34">
-        <v>-0.05591056198104707</v>
+        <v>-0.05493726987547336</v>
       </c>
       <c r="D34">
-        <v>-0.01633396467196387</v>
+        <v>0.01779144493518356</v>
       </c>
       <c r="E34">
-        <v>-0.0253684895893946</v>
+        <v>-0.001249766006757331</v>
       </c>
       <c r="F34">
-        <v>0.01564742738998706</v>
+        <v>0.002080361869781196</v>
       </c>
       <c r="G34">
-        <v>0.04060715908711599</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02385635774384759</v>
+      </c>
+      <c r="H34">
+        <v>0.009145900839396575</v>
+      </c>
+      <c r="I34">
+        <v>-0.00199720929006228</v>
+      </c>
+      <c r="J34">
+        <v>0.01381683348878983</v>
+      </c>
+      <c r="K34">
+        <v>-0.03596428861275896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.004248912410412213</v>
+        <v>0.007925759401018948</v>
       </c>
       <c r="C35">
-        <v>-0.01117938985359357</v>
+        <v>-0.03663406659484773</v>
       </c>
       <c r="D35">
-        <v>-0.0002704308104961253</v>
+        <v>0.01558852910911104</v>
       </c>
       <c r="E35">
-        <v>-0.02144548988476173</v>
+        <v>-0.008720144183391877</v>
       </c>
       <c r="F35">
-        <v>0.01125846040235636</v>
+        <v>-0.01748499251657448</v>
       </c>
       <c r="G35">
-        <v>0.01699173428222788</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.04878125444280464</v>
+      </c>
+      <c r="H35">
+        <v>0.1571762239233941</v>
+      </c>
+      <c r="I35">
+        <v>-0.003108688232905987</v>
+      </c>
+      <c r="J35">
+        <v>0.1527426527287721</v>
+      </c>
+      <c r="K35">
+        <v>0.1227616017255745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.01324160322524947</v>
+        <v>0.01539797491528579</v>
       </c>
       <c r="C36">
-        <v>-0.05073128187482442</v>
+        <v>-0.05081400315054661</v>
       </c>
       <c r="D36">
-        <v>-0.03794807597981142</v>
+        <v>0.0410684574917275</v>
       </c>
       <c r="E36">
-        <v>-0.02726254185397156</v>
+        <v>0.001918661185184593</v>
       </c>
       <c r="F36">
-        <v>0.003620185367828749</v>
+        <v>-0.01114950988987841</v>
       </c>
       <c r="G36">
-        <v>0.01913160347194691</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.006511273362985505</v>
+      </c>
+      <c r="H36">
+        <v>0.06826455861322304</v>
+      </c>
+      <c r="I36">
+        <v>-0.01950832399929585</v>
+      </c>
+      <c r="J36">
+        <v>-0.03302512747492534</v>
+      </c>
+      <c r="K36">
+        <v>-0.05603931364812876</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02568436476477252</v>
+        <v>0.01323351300248726</v>
       </c>
       <c r="C38">
-        <v>-0.0477973937281843</v>
+        <v>-0.06355043771128242</v>
       </c>
       <c r="D38">
-        <v>-0.02442703973735287</v>
+        <v>0.03181023217380782</v>
       </c>
       <c r="E38">
-        <v>-0.03687437951615802</v>
+        <v>0.03300921418965242</v>
       </c>
       <c r="F38">
-        <v>0.02242751470700875</v>
+        <v>-0.02419445348248687</v>
       </c>
       <c r="G38">
-        <v>0.0001471565613281201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.004516953352143641</v>
+      </c>
+      <c r="H38">
+        <v>0.08019115515985759</v>
+      </c>
+      <c r="I38">
+        <v>0.056797594397658</v>
+      </c>
+      <c r="J38">
+        <v>0.02911565137029259</v>
+      </c>
+      <c r="K38">
+        <v>-0.06127362221503325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.01224020504367208</v>
+        <v>0.01764306545054159</v>
       </c>
       <c r="C39">
-        <v>-0.1357631888084921</v>
+        <v>-0.1321726152560889</v>
       </c>
       <c r="D39">
-        <v>-0.02381486207879904</v>
+        <v>0.04579301503511694</v>
       </c>
       <c r="E39">
-        <v>-0.07316569643716306</v>
+        <v>-0.001341366370998496</v>
       </c>
       <c r="F39">
-        <v>0.04592285154370235</v>
+        <v>-0.01926544688574325</v>
       </c>
       <c r="G39">
-        <v>0.05170232662677368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04778743486874175</v>
+      </c>
+      <c r="H39">
+        <v>0.04468922164759043</v>
+      </c>
+      <c r="I39">
+        <v>-0.06539277682590595</v>
+      </c>
+      <c r="J39">
+        <v>-0.005009365445595606</v>
+      </c>
+      <c r="K39">
+        <v>-0.04637358731521826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.007036933373021432</v>
+        <v>0.01502868406431582</v>
       </c>
       <c r="C40">
-        <v>-0.03069143517356781</v>
+        <v>-0.0599630559489812</v>
       </c>
       <c r="D40">
-        <v>-0.01565680452884241</v>
+        <v>0.02749516973552662</v>
       </c>
       <c r="E40">
-        <v>-0.1508212248555994</v>
+        <v>-0.0271960367634493</v>
       </c>
       <c r="F40">
-        <v>0.02448536523446676</v>
+        <v>-0.08804161671533578</v>
       </c>
       <c r="G40">
-        <v>-0.004294007868983539</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1309721642023868</v>
+      </c>
+      <c r="H40">
+        <v>0.0142846798118097</v>
+      </c>
+      <c r="I40">
+        <v>0.07661964673325274</v>
+      </c>
+      <c r="J40">
+        <v>0.2808839079889666</v>
+      </c>
+      <c r="K40">
+        <v>-0.0730431418428853</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.009906071342385933</v>
+        <v>0.02172783425621582</v>
       </c>
       <c r="C41">
-        <v>-0.02152602945161311</v>
+        <v>-0.04906058308079016</v>
       </c>
       <c r="D41">
-        <v>0.000433235549444345</v>
+        <v>0.01206154774894487</v>
       </c>
       <c r="E41">
-        <v>0.02713968492894248</v>
+        <v>0.005132982388372763</v>
       </c>
       <c r="F41">
-        <v>-0.01016323634291177</v>
+        <v>0.01990742622157831</v>
       </c>
       <c r="G41">
-        <v>-0.0155751271627642</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.001642027356675915</v>
+      </c>
+      <c r="H41">
+        <v>0.03051603157508775</v>
+      </c>
+      <c r="I41">
+        <v>0.0361989126545583</v>
+      </c>
+      <c r="J41">
+        <v>0.05506430949103868</v>
+      </c>
+      <c r="K41">
+        <v>-0.002934316791889084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.006584910706391583</v>
+        <v>0.01730305790692695</v>
       </c>
       <c r="C43">
-        <v>-0.02233031222022796</v>
+        <v>-0.04562579945818222</v>
       </c>
       <c r="D43">
-        <v>-0.0107879313219284</v>
+        <v>0.02698643178878047</v>
       </c>
       <c r="E43">
-        <v>0.003539435151806135</v>
+        <v>0.01769629181973666</v>
       </c>
       <c r="F43">
-        <v>0.02189329761148315</v>
+        <v>0.007178945815970584</v>
       </c>
       <c r="G43">
-        <v>-0.003640070222958387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.004132583414174567</v>
+      </c>
+      <c r="H43">
+        <v>0.04780273485586577</v>
+      </c>
+      <c r="I43">
+        <v>0.007600632343607272</v>
+      </c>
+      <c r="J43">
+        <v>0.04544338687697248</v>
+      </c>
+      <c r="K43">
+        <v>-0.002477701539160875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02555762922621693</v>
+        <v>0.01099950045770538</v>
       </c>
       <c r="C44">
-        <v>-0.08248088672379089</v>
+        <v>-0.0902930691947685</v>
       </c>
       <c r="D44">
-        <v>0.0009357616607122124</v>
+        <v>0.04691254289666985</v>
       </c>
       <c r="E44">
-        <v>-0.1044259589201486</v>
+        <v>0.02026341030491409</v>
       </c>
       <c r="F44">
-        <v>0.02328398306188184</v>
+        <v>-0.08372060834658925</v>
       </c>
       <c r="G44">
-        <v>-0.02082364475594709</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04084777774107196</v>
+      </c>
+      <c r="H44">
+        <v>0.04782716439760087</v>
+      </c>
+      <c r="I44">
+        <v>-0.06367346787950617</v>
+      </c>
+      <c r="J44">
+        <v>-0.06292192731137383</v>
+      </c>
+      <c r="K44">
+        <v>0.0108757824795807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.007818120495659584</v>
+        <v>0.003624188635898111</v>
       </c>
       <c r="C46">
-        <v>-0.06007408887148297</v>
+        <v>-0.06351583062018334</v>
       </c>
       <c r="D46">
-        <v>-0.02315637813826211</v>
+        <v>0.0222242394037873</v>
       </c>
       <c r="E46">
-        <v>-0.04939027808334138</v>
+        <v>-0.004825024730611541</v>
       </c>
       <c r="F46">
-        <v>0.02154213207907256</v>
+        <v>-0.002310993118847724</v>
       </c>
       <c r="G46">
-        <v>0.03785353578507542</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03560183526153468</v>
+      </c>
+      <c r="H46">
+        <v>0.1130692144940205</v>
+      </c>
+      <c r="I46">
+        <v>-0.009745818270929928</v>
+      </c>
+      <c r="J46">
+        <v>0.08011958459815122</v>
+      </c>
+      <c r="K46">
+        <v>0.03781684881227318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.01243213433321996</v>
+        <v>0.02222556310887849</v>
       </c>
       <c r="C47">
-        <v>-0.1150254839950286</v>
+        <v>-0.09840741057943583</v>
       </c>
       <c r="D47">
-        <v>-0.03034657215636665</v>
+        <v>0.03785294606488906</v>
       </c>
       <c r="E47">
-        <v>0.06862300465327177</v>
+        <v>-0.009447033264322576</v>
       </c>
       <c r="F47">
-        <v>-0.03082430836881549</v>
+        <v>0.03698841514053257</v>
       </c>
       <c r="G47">
-        <v>0.03444969849791144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.02845875808281933</v>
+      </c>
+      <c r="H47">
+        <v>0.07441354160426819</v>
+      </c>
+      <c r="I47">
+        <v>0.03146590720668174</v>
+      </c>
+      <c r="J47">
+        <v>0.02889326201020187</v>
+      </c>
+      <c r="K47">
+        <v>-0.03703702103775813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01912094013102596</v>
+        <v>0.02183733125466309</v>
       </c>
       <c r="C48">
-        <v>-0.05443422353998715</v>
+        <v>-0.05794776978905977</v>
       </c>
       <c r="D48">
-        <v>-0.05342048350851002</v>
+        <v>0.05122593866377181</v>
       </c>
       <c r="E48">
-        <v>-0.01391911355513972</v>
+        <v>0.005630973660686596</v>
       </c>
       <c r="F48">
-        <v>0.01079108182851765</v>
+        <v>-0.004596089941978847</v>
       </c>
       <c r="G48">
-        <v>0.01723156647169758</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.005468305144075305</v>
+      </c>
+      <c r="H48">
+        <v>0.1044619544552924</v>
+      </c>
+      <c r="I48">
+        <v>-0.03779462462208513</v>
+      </c>
+      <c r="J48">
+        <v>-0.07751824811137573</v>
+      </c>
+      <c r="K48">
+        <v>-0.07826066097006378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.008595039148515555</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02076246476267788</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>5.452110244336816e-05</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.006493748482344536</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03344261697934781</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.02139032738644419</v>
+      </c>
+      <c r="H49">
+        <v>-0.0189450215198667</v>
+      </c>
+      <c r="I49">
+        <v>-0.04159960456634955</v>
+      </c>
+      <c r="J49">
+        <v>-0.01572083064732216</v>
+      </c>
+      <c r="K49">
+        <v>-0.007136134073096542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.006286438002138503</v>
+        <v>0.01412741529106635</v>
       </c>
       <c r="C50">
-        <v>-0.09440618918424488</v>
+        <v>-0.09016363726917173</v>
       </c>
       <c r="D50">
-        <v>-0.02190052019949374</v>
+        <v>0.02213300088149173</v>
       </c>
       <c r="E50">
-        <v>0.02287774697038326</v>
+        <v>0.003155746453673245</v>
       </c>
       <c r="F50">
-        <v>-0.008186039938741327</v>
+        <v>0.005835815316245823</v>
       </c>
       <c r="G50">
-        <v>-0.01803262276537421</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.037572433293083</v>
+      </c>
+      <c r="H50">
+        <v>0.06098490965977482</v>
+      </c>
+      <c r="I50">
+        <v>0.04553281010310965</v>
+      </c>
+      <c r="J50">
+        <v>0.02795437370876248</v>
+      </c>
+      <c r="K50">
+        <v>-0.008481601297238075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.008803961397807229</v>
+        <v>-0.004986621700924915</v>
       </c>
       <c r="C51">
-        <v>-0.06847522824766628</v>
+        <v>-0.04150008374353786</v>
       </c>
       <c r="D51">
-        <v>0.01573750049402693</v>
+        <v>0.01693399499932081</v>
       </c>
       <c r="E51">
-        <v>-0.09255467811247231</v>
+        <v>-0.009474759015591121</v>
       </c>
       <c r="F51">
-        <v>0.003334237556529711</v>
+        <v>-0.04665769227812811</v>
       </c>
       <c r="G51">
-        <v>-0.03065470804104927</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.01706767207617187</v>
+      </c>
+      <c r="H51">
+        <v>0.09391551065837034</v>
+      </c>
+      <c r="I51">
+        <v>-0.02712494014869028</v>
+      </c>
+      <c r="J51">
+        <v>-0.1091052557505591</v>
+      </c>
+      <c r="K51">
+        <v>-0.008213474356293445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.05675510071089415</v>
+        <v>0.05819281204321121</v>
       </c>
       <c r="C53">
-        <v>-0.1384862244115291</v>
+        <v>-0.1357150209728005</v>
       </c>
       <c r="D53">
-        <v>-0.05190083922951524</v>
+        <v>0.04722181426312168</v>
       </c>
       <c r="E53">
-        <v>0.1142944948601452</v>
+        <v>-0.005585794966781973</v>
       </c>
       <c r="F53">
-        <v>0.02936778363369102</v>
+        <v>0.08771460847717527</v>
       </c>
       <c r="G53">
-        <v>0.01350330813197796</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.06654054953410994</v>
+      </c>
+      <c r="H53">
+        <v>-0.01512404839732812</v>
+      </c>
+      <c r="I53">
+        <v>0.04451208794982138</v>
+      </c>
+      <c r="J53">
+        <v>0.01444791989197957</v>
+      </c>
+      <c r="K53">
+        <v>-0.0752071206825472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.01588130807953564</v>
+        <v>0.01750539601546135</v>
       </c>
       <c r="C54">
-        <v>-0.05930952835322584</v>
+        <v>-0.07193324591590296</v>
       </c>
       <c r="D54">
-        <v>0.001887997345965893</v>
+        <v>0.003724099472164606</v>
       </c>
       <c r="E54">
-        <v>0.003453538251841499</v>
+        <v>0.001202122912542649</v>
       </c>
       <c r="F54">
-        <v>0.03012868860469223</v>
+        <v>0.00989522763837134</v>
       </c>
       <c r="G54">
-        <v>0.007091301099873873</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.01911636358805399</v>
+      </c>
+      <c r="H54">
+        <v>0.06384060372095393</v>
+      </c>
+      <c r="I54">
+        <v>-0.01951189138786719</v>
+      </c>
+      <c r="J54">
+        <v>0.02826651603573954</v>
+      </c>
+      <c r="K54">
+        <v>0.01647864150568557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.04005475824520743</v>
+        <v>0.03393637578473442</v>
       </c>
       <c r="C55">
-        <v>-0.1012957379477187</v>
+        <v>-0.09309562728002209</v>
       </c>
       <c r="D55">
-        <v>-0.05769588498363609</v>
+        <v>0.04937581811378752</v>
       </c>
       <c r="E55">
-        <v>0.06337982592617129</v>
+        <v>-0.000694702664125032</v>
       </c>
       <c r="F55">
-        <v>-4.598759506411925e-05</v>
+        <v>0.06879865078717613</v>
       </c>
       <c r="G55">
-        <v>0.02974560800052594</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03260767860075257</v>
+      </c>
+      <c r="H55">
+        <v>-0.008650592184069822</v>
+      </c>
+      <c r="I55">
+        <v>-0.01069729576319422</v>
+      </c>
+      <c r="J55">
+        <v>0.007408291660552502</v>
+      </c>
+      <c r="K55">
+        <v>-0.0520364999330832</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.04426337343501293</v>
+        <v>0.04307173791267546</v>
       </c>
       <c r="C56">
-        <v>-0.1787213241173827</v>
+        <v>-0.1670832663725462</v>
       </c>
       <c r="D56">
-        <v>-0.05493167278900776</v>
+        <v>0.06809673422687397</v>
       </c>
       <c r="E56">
-        <v>0.1441573548639059</v>
+        <v>-0.0243812671636278</v>
       </c>
       <c r="F56">
-        <v>-0.01513466172217823</v>
+        <v>0.1242186331826615</v>
       </c>
       <c r="G56">
-        <v>0.001754013415513643</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1220894308446236</v>
+      </c>
+      <c r="H56">
+        <v>-0.03919394443417026</v>
+      </c>
+      <c r="I56">
+        <v>0.02728653006010924</v>
+      </c>
+      <c r="J56">
+        <v>-0.02212145483226877</v>
+      </c>
+      <c r="K56">
+        <v>-0.05612550800063786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.04971405079030448</v>
+        <v>0.02103945590485923</v>
       </c>
       <c r="C58">
-        <v>-0.2356560782946033</v>
+        <v>-0.1790640527244306</v>
       </c>
       <c r="D58">
-        <v>0.1178779608508143</v>
+        <v>0.0181068097908593</v>
       </c>
       <c r="E58">
-        <v>-0.2442395078580999</v>
+        <v>0.03280070117397932</v>
       </c>
       <c r="F58">
-        <v>0.006618079272208585</v>
+        <v>-0.3370747263735788</v>
       </c>
       <c r="G58">
-        <v>-0.3842371535487391</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1388914457769551</v>
+      </c>
+      <c r="H58">
+        <v>-0.003115094139620655</v>
+      </c>
+      <c r="I58">
+        <v>0.002629707151490278</v>
+      </c>
+      <c r="J58">
+        <v>-0.3685920011084735</v>
+      </c>
+      <c r="K58">
+        <v>0.2812294967873999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2838055933579298</v>
+        <v>0.2864412287357925</v>
       </c>
       <c r="C59">
-        <v>0.04021018436207215</v>
+        <v>0.04857796371488014</v>
       </c>
       <c r="D59">
-        <v>0.03859470135993694</v>
+        <v>-0.002178136635584768</v>
       </c>
       <c r="E59">
-        <v>-0.03084745536793183</v>
+        <v>-0.02081288000829815</v>
       </c>
       <c r="F59">
-        <v>-0.04705500793417539</v>
+        <v>-0.03566136005211382</v>
       </c>
       <c r="G59">
-        <v>0.04044910282877174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.005622450735147229</v>
+      </c>
+      <c r="H59">
+        <v>-0.01990949804981738</v>
+      </c>
+      <c r="I59">
+        <v>0.03325860740434377</v>
+      </c>
+      <c r="J59">
+        <v>0.01463709164234197</v>
+      </c>
+      <c r="K59">
+        <v>-0.02494239435815355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1269150421224714</v>
+        <v>0.1508466724227411</v>
       </c>
       <c r="C60">
-        <v>-0.124530485177827</v>
+        <v>-0.1425350832719785</v>
       </c>
       <c r="D60">
-        <v>-0.04356990357649923</v>
+        <v>0.03563494150430903</v>
       </c>
       <c r="E60">
-        <v>-0.08333764046003322</v>
+        <v>-0.04775603723301365</v>
       </c>
       <c r="F60">
-        <v>0.1068305960608858</v>
+        <v>0.07185473976813886</v>
       </c>
       <c r="G60">
-        <v>0.2884382305099966</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2888019374575852</v>
+      </c>
+      <c r="H60">
+        <v>-0.2178550326130396</v>
+      </c>
+      <c r="I60">
+        <v>-0.03519281236149243</v>
+      </c>
+      <c r="J60">
+        <v>-0.01830560220190811</v>
+      </c>
+      <c r="K60">
+        <v>0.08115697557660768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.01152827332935227</v>
+        <v>0.01971710724155387</v>
       </c>
       <c r="C61">
-        <v>-0.09340731941997399</v>
+        <v>-0.102432756142473</v>
       </c>
       <c r="D61">
-        <v>-0.0422745926775167</v>
+        <v>0.04585262907415275</v>
       </c>
       <c r="E61">
-        <v>-0.02905277409866716</v>
+        <v>-0.002673354671870725</v>
       </c>
       <c r="F61">
-        <v>0.04077668329659909</v>
+        <v>0.01754030594421349</v>
       </c>
       <c r="G61">
-        <v>0.07847620728149478</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.04394876123010685</v>
+      </c>
+      <c r="H61">
+        <v>0.05487489678121343</v>
+      </c>
+      <c r="I61">
+        <v>-0.02997280637889589</v>
+      </c>
+      <c r="J61">
+        <v>0.02693722062375082</v>
+      </c>
+      <c r="K61">
+        <v>-0.03934544993581743</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.001542277469445477</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.007001213036136857</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.001873108596785958</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.0005960851944216085</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01477259132115932</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02147288900752512</v>
+      </c>
+      <c r="H62">
+        <v>0.008154704148765301</v>
+      </c>
+      <c r="I62">
+        <v>-0.007476358029156484</v>
+      </c>
+      <c r="J62">
+        <v>0.009618197217312097</v>
+      </c>
+      <c r="K62">
+        <v>0.006259581689361804</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.006785742512810659</v>
+        <v>0.02495898921852839</v>
       </c>
       <c r="C63">
-        <v>-0.06561845543617921</v>
+        <v>-0.07294793883244934</v>
       </c>
       <c r="D63">
-        <v>-0.01916480526838525</v>
+        <v>0.04882822377463624</v>
       </c>
       <c r="E63">
-        <v>-0.008263687618876647</v>
+        <v>-0.001963005522888566</v>
       </c>
       <c r="F63">
-        <v>0.02806496790766744</v>
+        <v>0.006485671076429494</v>
       </c>
       <c r="G63">
-        <v>0.02737743435618402</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01541598966967649</v>
+      </c>
+      <c r="H63">
+        <v>0.05761122086020845</v>
+      </c>
+      <c r="I63">
+        <v>-0.006804702829529318</v>
+      </c>
+      <c r="J63">
+        <v>0.01931034638331975</v>
+      </c>
+      <c r="K63">
+        <v>-0.05420216396340972</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.01104468920625657</v>
+        <v>0.01845361102245616</v>
       </c>
       <c r="C64">
-        <v>-0.1001352030638491</v>
+        <v>-0.0979111518024596</v>
       </c>
       <c r="D64">
-        <v>-0.06298543478316736</v>
+        <v>0.02892910173971074</v>
       </c>
       <c r="E64">
-        <v>-0.02853543755896455</v>
+        <v>0.03482522068229828</v>
       </c>
       <c r="F64">
-        <v>0.01927334138079808</v>
+        <v>-0.0411215414077924</v>
       </c>
       <c r="G64">
-        <v>0.01552765481645129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.02258972357216782</v>
+      </c>
+      <c r="H64">
+        <v>0.0355774688442155</v>
+      </c>
+      <c r="I64">
+        <v>-0.01386067388955825</v>
+      </c>
+      <c r="J64">
+        <v>0.02869499536745437</v>
+      </c>
+      <c r="K64">
+        <v>-0.1059364023339561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.03131961984817124</v>
+        <v>0.03194346661404664</v>
       </c>
       <c r="C65">
-        <v>-0.05808684556665093</v>
+        <v>-0.08385460049655329</v>
       </c>
       <c r="D65">
-        <v>-0.01118687162463226</v>
+        <v>0.006136174448319605</v>
       </c>
       <c r="E65">
-        <v>-0.08624329346898836</v>
+        <v>0.02824848223597105</v>
       </c>
       <c r="F65">
-        <v>0.03189894369639554</v>
+        <v>-0.04103271921243458</v>
       </c>
       <c r="G65">
-        <v>0.03189274527507132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.1206747137591644</v>
+      </c>
+      <c r="H65">
+        <v>-0.00993774189480847</v>
+      </c>
+      <c r="I65">
+        <v>-0.0836559603031037</v>
+      </c>
+      <c r="J65">
+        <v>-0.06660073024108291</v>
+      </c>
+      <c r="K65">
+        <v>0.02046870769586101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.01505441985104362</v>
+        <v>0.01323235024991306</v>
       </c>
       <c r="C66">
-        <v>-0.1609668888994184</v>
+        <v>-0.1653180830367982</v>
       </c>
       <c r="D66">
-        <v>-0.0003108603931370523</v>
+        <v>0.03322451700755875</v>
       </c>
       <c r="E66">
-        <v>-0.1180378861006239</v>
+        <v>-0.00688875314591048</v>
       </c>
       <c r="F66">
-        <v>0.02984477725184721</v>
+        <v>-0.0332114175692123</v>
       </c>
       <c r="G66">
-        <v>0.06143802266394509</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04194847334056932</v>
+      </c>
+      <c r="H66">
+        <v>0.04895826641311184</v>
+      </c>
+      <c r="I66">
+        <v>-0.04663022452046169</v>
+      </c>
+      <c r="J66">
+        <v>-0.003908557481726831</v>
+      </c>
+      <c r="K66">
+        <v>-0.03001766957911619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02582859394143534</v>
+        <v>0.02206543624166801</v>
       </c>
       <c r="C67">
-        <v>-0.03609020961446256</v>
+        <v>-0.05533307036004304</v>
       </c>
       <c r="D67">
-        <v>-0.04884669457033312</v>
+        <v>0.03687838839396413</v>
       </c>
       <c r="E67">
-        <v>0.004456168384026397</v>
+        <v>0.02853641958780107</v>
       </c>
       <c r="F67">
-        <v>0.02582983371480447</v>
+        <v>0.01217693239793389</v>
       </c>
       <c r="G67">
-        <v>0.01862729764942651</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02337729536732068</v>
+      </c>
+      <c r="H67">
+        <v>0.05794336870151446</v>
+      </c>
+      <c r="I67">
+        <v>0.05103306391601165</v>
+      </c>
+      <c r="J67">
+        <v>0.04231999225320854</v>
+      </c>
+      <c r="K67">
+        <v>-0.04267466877207581</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2766913919503931</v>
+        <v>0.2933764855361122</v>
       </c>
       <c r="C68">
-        <v>0.0655649707154657</v>
+        <v>0.0564262835052018</v>
       </c>
       <c r="D68">
-        <v>0.02003227622001257</v>
+        <v>-0.02815423985574481</v>
       </c>
       <c r="E68">
-        <v>0.002382135747898756</v>
+        <v>-0.006086007292313778</v>
       </c>
       <c r="F68">
-        <v>-0.01215884583396678</v>
+        <v>-0.03882266294167017</v>
       </c>
       <c r="G68">
-        <v>-0.0319667000875744</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02573847902085109</v>
+      </c>
+      <c r="H68">
+        <v>-0.01481551418771197</v>
+      </c>
+      <c r="I68">
+        <v>0.05208399101986661</v>
+      </c>
+      <c r="J68">
+        <v>-0.01479745721543673</v>
+      </c>
+      <c r="K68">
+        <v>-0.02655880859498041</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01177619533274617</v>
+        <v>0.008435622198706277</v>
       </c>
       <c r="C69">
-        <v>-0.1019762245606514</v>
+        <v>-0.07575597776293221</v>
       </c>
       <c r="D69">
-        <v>-0.05440919132717807</v>
+        <v>0.02675070041866502</v>
       </c>
       <c r="E69">
-        <v>0.04768762123631553</v>
+        <v>-0.0009801623040254131</v>
       </c>
       <c r="F69">
-        <v>0.005157247310119939</v>
+        <v>0.02159264264383894</v>
       </c>
       <c r="G69">
-        <v>-0.002038399613908629</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.008158617431438184</v>
+      </c>
+      <c r="H69">
+        <v>0.05720575255300886</v>
+      </c>
+      <c r="I69">
+        <v>0.02660721364979358</v>
+      </c>
+      <c r="J69">
+        <v>-0.001555116996235238</v>
+      </c>
+      <c r="K69">
+        <v>-0.03977057798186387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2792538143874359</v>
+        <v>0.2754185312744285</v>
       </c>
       <c r="C71">
-        <v>0.07818069214672603</v>
+        <v>0.07857261987030355</v>
       </c>
       <c r="D71">
-        <v>0.02249065035101569</v>
+        <v>-0.0159552446562972</v>
       </c>
       <c r="E71">
-        <v>-0.008253021422133433</v>
+        <v>0.0260495188472205</v>
       </c>
       <c r="F71">
-        <v>0.01263106785679615</v>
+        <v>-0.04568188578466885</v>
       </c>
       <c r="G71">
-        <v>-0.02800766423926758</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02204572662108409</v>
+      </c>
+      <c r="H71">
+        <v>0.05154730216483171</v>
+      </c>
+      <c r="I71">
+        <v>0.1173942711519259</v>
+      </c>
+      <c r="J71">
+        <v>-0.05987225915547509</v>
+      </c>
+      <c r="K71">
+        <v>-0.05294560368255786</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.04247228433893423</v>
+        <v>0.05549375682433715</v>
       </c>
       <c r="C72">
-        <v>-0.1494581906366082</v>
+        <v>-0.1462869193569831</v>
       </c>
       <c r="D72">
-        <v>-0.03713014804395254</v>
+        <v>0.02545511393419959</v>
       </c>
       <c r="E72">
-        <v>-0.1089147065404057</v>
+        <v>0.004970733569615344</v>
       </c>
       <c r="F72">
-        <v>0.09455071657151827</v>
+        <v>-0.001335740247656136</v>
       </c>
       <c r="G72">
-        <v>0.05815290979865352</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.06103393952123508</v>
+      </c>
+      <c r="H72">
+        <v>-0.03169065061852324</v>
+      </c>
+      <c r="I72">
+        <v>-0.0984637280831113</v>
+      </c>
+      <c r="J72">
+        <v>-0.04362804369223868</v>
+      </c>
+      <c r="K72">
+        <v>0.01552061644667097</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.08399709472965831</v>
+        <v>0.1515778417978035</v>
       </c>
       <c r="C73">
-        <v>-0.145765484427614</v>
+        <v>-0.1932723203617578</v>
       </c>
       <c r="D73">
-        <v>-0.08985069289055404</v>
+        <v>0.06754307431171547</v>
       </c>
       <c r="E73">
-        <v>-0.06935564383232472</v>
+        <v>-0.03867831803341321</v>
       </c>
       <c r="F73">
-        <v>0.1611300936578214</v>
+        <v>0.1718799169562973</v>
       </c>
       <c r="G73">
-        <v>0.3976688846343957</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.4284558197859182</v>
+      </c>
+      <c r="H73">
+        <v>-0.2828003317147235</v>
+      </c>
+      <c r="I73">
+        <v>0.06777337368001463</v>
+      </c>
+      <c r="J73">
+        <v>-0.09778190539326384</v>
+      </c>
+      <c r="K73">
+        <v>0.07799231302531166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01976747271186149</v>
+        <v>0.03642538297388202</v>
       </c>
       <c r="C74">
-        <v>-0.1056806330139862</v>
+        <v>-0.1058205462138513</v>
       </c>
       <c r="D74">
-        <v>-0.06252104387412051</v>
+        <v>0.04028898371714711</v>
       </c>
       <c r="E74">
-        <v>0.08377270902008135</v>
+        <v>0.0006420661262464576</v>
       </c>
       <c r="F74">
-        <v>-0.00836852869504461</v>
+        <v>0.0657161038039468</v>
       </c>
       <c r="G74">
-        <v>0.01024596628424284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04445571269266109</v>
+      </c>
+      <c r="H74">
+        <v>0.00201112299040335</v>
+      </c>
+      <c r="I74">
+        <v>-0.003127159063124713</v>
+      </c>
+      <c r="J74">
+        <v>-0.0140445893596621</v>
+      </c>
+      <c r="K74">
+        <v>-0.070831309081302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.07059047261921035</v>
+        <v>0.06278606676511908</v>
       </c>
       <c r="C75">
-        <v>-0.1804710241060553</v>
+        <v>-0.1856502335489182</v>
       </c>
       <c r="D75">
-        <v>-0.09371982094884204</v>
+        <v>0.07536144641412111</v>
       </c>
       <c r="E75">
-        <v>0.2313952372237849</v>
+        <v>0.05179417511887796</v>
       </c>
       <c r="F75">
-        <v>-0.01812554790139098</v>
+        <v>0.1677964317623806</v>
       </c>
       <c r="G75">
-        <v>-0.06494561961312492</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.194687913703479</v>
+      </c>
+      <c r="H75">
+        <v>-0.04074998262371952</v>
+      </c>
+      <c r="I75">
+        <v>0.1364878862036695</v>
+      </c>
+      <c r="J75">
+        <v>0.0599913562789414</v>
+      </c>
+      <c r="K75">
+        <v>-0.0663697229823666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.0443875334134096</v>
+        <v>0.04162152969031951</v>
       </c>
       <c r="C76">
-        <v>-0.1263931566817275</v>
+        <v>-0.1333691764100995</v>
       </c>
       <c r="D76">
-        <v>-0.05899668295091758</v>
+        <v>0.06364170770070421</v>
       </c>
       <c r="E76">
-        <v>0.1052664040374051</v>
+        <v>0.005886296086429252</v>
       </c>
       <c r="F76">
-        <v>-0.004322573399093439</v>
+        <v>0.1005249484782954</v>
       </c>
       <c r="G76">
-        <v>0.04848965467266626</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05472335299419175</v>
+      </c>
+      <c r="H76">
+        <v>-0.008536078866345323</v>
+      </c>
+      <c r="I76">
+        <v>-0.002578563586477376</v>
+      </c>
+      <c r="J76">
+        <v>0.02411333865672708</v>
+      </c>
+      <c r="K76">
+        <v>-0.1496657002328215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.09094289659272807</v>
+        <v>0.04734905410769986</v>
       </c>
       <c r="C77">
-        <v>-0.2257056881978582</v>
+        <v>-0.321691782861174</v>
       </c>
       <c r="D77">
-        <v>0.8753146045432708</v>
+        <v>-0.93238732530665</v>
       </c>
       <c r="E77">
-        <v>0.2744118825235728</v>
+        <v>0.04375872246710246</v>
       </c>
       <c r="F77">
-        <v>0.1769568974381319</v>
+        <v>0.076276191242344</v>
       </c>
       <c r="G77">
-        <v>0.09309240732536779</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01022865629779013</v>
+      </c>
+      <c r="H77">
+        <v>0.04727300421249205</v>
+      </c>
+      <c r="I77">
+        <v>0.00395605209040385</v>
+      </c>
+      <c r="J77">
+        <v>0.003437083206534302</v>
+      </c>
+      <c r="K77">
+        <v>-0.00609202899342986</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.05067621117421211</v>
+        <v>0.03662585645332433</v>
       </c>
       <c r="C78">
-        <v>-0.1687287822430335</v>
+        <v>-0.1275796650694558</v>
       </c>
       <c r="D78">
-        <v>-0.05869774291562818</v>
+        <v>0.08485431118118633</v>
       </c>
       <c r="E78">
-        <v>-0.01624339116610301</v>
+        <v>-0.04081512768825578</v>
       </c>
       <c r="F78">
-        <v>-0.1679931068196168</v>
+        <v>0.0146884590703893</v>
       </c>
       <c r="G78">
-        <v>-0.02166769453359372</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1187339986977451</v>
+      </c>
+      <c r="H78">
+        <v>0.07351858573737891</v>
+      </c>
+      <c r="I78">
+        <v>-0.1669606953414072</v>
+      </c>
+      <c r="J78">
+        <v>-0.46569103585563</v>
+      </c>
+      <c r="K78">
+        <v>-0.01487041485926544</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.04909340846312188</v>
+        <v>0.05629913000483475</v>
       </c>
       <c r="C79">
-        <v>-0.2118108275727827</v>
+        <v>-0.1647848258443519</v>
       </c>
       <c r="D79">
-        <v>-0.1066231147550237</v>
+        <v>0.05840047206475597</v>
       </c>
       <c r="E79">
-        <v>0.204885340004096</v>
+        <v>-0.01524137419783456</v>
       </c>
       <c r="F79">
-        <v>-0.1157495718857024</v>
+        <v>0.1171105518894518</v>
       </c>
       <c r="G79">
-        <v>-0.05648200825187901</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2251142709647244</v>
+      </c>
+      <c r="H79">
+        <v>-0.006501308534081002</v>
+      </c>
+      <c r="I79">
+        <v>0.08650627600998505</v>
+      </c>
+      <c r="J79">
+        <v>-0.03555767333143557</v>
+      </c>
+      <c r="K79">
+        <v>-0.03315059178153112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.01521139297766163</v>
+        <v>0.01960508762451859</v>
       </c>
       <c r="C80">
-        <v>-0.05424823338756007</v>
+        <v>-0.05437924220602176</v>
       </c>
       <c r="D80">
-        <v>-0.04749455565771583</v>
+        <v>0.04015354967829624</v>
       </c>
       <c r="E80">
-        <v>0.01140091715372205</v>
+        <v>-0.04678235184665978</v>
       </c>
       <c r="F80">
-        <v>-0.0133598934911377</v>
+        <v>-0.02587935333391168</v>
       </c>
       <c r="G80">
-        <v>0.01887086536336196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04252217045012363</v>
+      </c>
+      <c r="H80">
+        <v>-0.03191328420995621</v>
+      </c>
+      <c r="I80">
+        <v>0.0661817495895901</v>
+      </c>
+      <c r="J80">
+        <v>0.08584727053011314</v>
+      </c>
+      <c r="K80">
+        <v>-0.041972320724572</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.0162109218075975</v>
+        <v>0.01615872624048212</v>
       </c>
       <c r="C81">
-        <v>-0.1161435609325308</v>
+        <v>-0.1118149027360469</v>
       </c>
       <c r="D81">
-        <v>-0.07500168229285259</v>
+        <v>0.04641096755421458</v>
       </c>
       <c r="E81">
-        <v>0.1583667852298311</v>
+        <v>-0.005515824148160207</v>
       </c>
       <c r="F81">
-        <v>-0.02129994120745073</v>
+        <v>0.07498018996676034</v>
       </c>
       <c r="G81">
-        <v>0.005291350537029417</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1143418772665942</v>
+      </c>
+      <c r="H81">
+        <v>0.04697374333538751</v>
+      </c>
+      <c r="I81">
+        <v>0.06188334896432512</v>
+      </c>
+      <c r="J81">
+        <v>0.02650976966611775</v>
+      </c>
+      <c r="K81">
+        <v>-0.1008204703659663</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.04383651455915383</v>
+        <v>0.04620478855352313</v>
       </c>
       <c r="C82">
-        <v>-0.1204813136736419</v>
+        <v>-0.1174162971956215</v>
       </c>
       <c r="D82">
-        <v>-0.08035319540157448</v>
+        <v>0.06229250942399524</v>
       </c>
       <c r="E82">
-        <v>0.1105127376957353</v>
+        <v>-0.004970549813243571</v>
       </c>
       <c r="F82">
-        <v>0.01343611811866028</v>
+        <v>0.09357361034694466</v>
       </c>
       <c r="G82">
-        <v>0.04258685580747622</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.07287139206138404</v>
+      </c>
+      <c r="H82">
+        <v>0.01244499124578538</v>
+      </c>
+      <c r="I82">
+        <v>0.02376008577643442</v>
+      </c>
+      <c r="J82">
+        <v>0.006788243054313949</v>
+      </c>
+      <c r="K82">
+        <v>-0.1148142824678054</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.004611185910861938</v>
+        <v>-0.001608834895969356</v>
       </c>
       <c r="C83">
-        <v>-0.04209742907528596</v>
+        <v>-0.004697601331865407</v>
       </c>
       <c r="D83">
-        <v>0.1827074479910588</v>
+        <v>-0.05848693130859702</v>
       </c>
       <c r="E83">
-        <v>-0.09051879310913573</v>
+        <v>-0.956533253247202</v>
       </c>
       <c r="F83">
-        <v>-0.8543553618547527</v>
+        <v>-0.08627705966865135</v>
       </c>
       <c r="G83">
-        <v>0.3247628279194651</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.08386023958776007</v>
+      </c>
+      <c r="H83">
+        <v>-0.08049487509455693</v>
+      </c>
+      <c r="I83">
+        <v>-0.05080746213087567</v>
+      </c>
+      <c r="J83">
+        <v>0.01579593293930461</v>
+      </c>
+      <c r="K83">
+        <v>-0.09688905975970873</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.003335044999720136</v>
+        <v>-0.0006373867917683124</v>
       </c>
       <c r="C84">
-        <v>-0.04248462889549325</v>
+        <v>-0.04228566111680457</v>
       </c>
       <c r="D84">
-        <v>-0.01551537912861588</v>
+        <v>0.05779706071815295</v>
       </c>
       <c r="E84">
-        <v>-0.08532226255660981</v>
+        <v>0.0296929201729024</v>
       </c>
       <c r="F84">
-        <v>0.02580371234926453</v>
+        <v>-0.0909625343243155</v>
       </c>
       <c r="G84">
-        <v>-0.1404346776849489</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.04939375599455106</v>
+      </c>
+      <c r="H84">
+        <v>0.0737419072988037</v>
+      </c>
+      <c r="I84">
+        <v>-0.107091099373565</v>
+      </c>
+      <c r="J84">
+        <v>0.07959521865471907</v>
+      </c>
+      <c r="K84">
+        <v>-0.06487610402297017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.04137480647395662</v>
+        <v>0.03052766294859982</v>
       </c>
       <c r="C85">
-        <v>-0.1524674080132503</v>
+        <v>-0.1300917545492975</v>
       </c>
       <c r="D85">
-        <v>-0.08500959693755619</v>
+        <v>0.07009979292751525</v>
       </c>
       <c r="E85">
-        <v>0.2093385922073356</v>
+        <v>-0.001791469328055327</v>
       </c>
       <c r="F85">
-        <v>-0.05848323396910188</v>
+        <v>0.1704106141625878</v>
       </c>
       <c r="G85">
-        <v>-0.0300665870736075</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1614428696026802</v>
+      </c>
+      <c r="H85">
+        <v>-0.0288510374601463</v>
+      </c>
+      <c r="I85">
+        <v>0.0888089778500044</v>
+      </c>
+      <c r="J85">
+        <v>0.03337342551455134</v>
+      </c>
+      <c r="K85">
+        <v>-0.1633445773406347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.02139259739803916</v>
+        <v>0.01609978859805086</v>
       </c>
       <c r="C86">
-        <v>-0.05823779882062813</v>
+        <v>-0.07207723457870883</v>
       </c>
       <c r="D86">
-        <v>0.04385630540973948</v>
+        <v>0.02198803921168386</v>
       </c>
       <c r="E86">
-        <v>-0.05234011732995304</v>
+        <v>0.003051776351907417</v>
       </c>
       <c r="F86">
-        <v>0.0443621078509848</v>
+        <v>-0.0752527197271361</v>
       </c>
       <c r="G86">
-        <v>-0.02137582353854957</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.07928742715675004</v>
+      </c>
+      <c r="H86">
+        <v>0.05418552742463125</v>
+      </c>
+      <c r="I86">
+        <v>0.1182583670857974</v>
+      </c>
+      <c r="J86">
+        <v>-0.1510113762462226</v>
+      </c>
+      <c r="K86">
+        <v>0.02156161876759243</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.06436417575268062</v>
+        <v>0.02459526787378979</v>
       </c>
       <c r="C87">
-        <v>-0.1372620964204383</v>
+        <v>-0.122763952967198</v>
       </c>
       <c r="D87">
-        <v>-0.004536837089855743</v>
+        <v>0.007994108528040873</v>
       </c>
       <c r="E87">
-        <v>-0.101814894589986</v>
+        <v>0.01008052370314037</v>
       </c>
       <c r="F87">
-        <v>-0.01395067273412672</v>
+        <v>-0.08809929683563861</v>
       </c>
       <c r="G87">
-        <v>-0.002561590401573607</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.003368283377396335</v>
+      </c>
+      <c r="H87">
+        <v>0.01964666284934844</v>
+      </c>
+      <c r="I87">
+        <v>-0.109705073446489</v>
+      </c>
+      <c r="J87">
+        <v>-0.08428402942746556</v>
+      </c>
+      <c r="K87">
+        <v>-0.09168562890097921</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.01457275487490714</v>
+        <v>0.03793737793818949</v>
       </c>
       <c r="C88">
-        <v>-0.0649971624391317</v>
+        <v>-0.07687985353054998</v>
       </c>
       <c r="D88">
-        <v>-0.05673962801954317</v>
+        <v>0.04086544427344348</v>
       </c>
       <c r="E88">
-        <v>0.05106473932941734</v>
+        <v>0.01525626076924826</v>
       </c>
       <c r="F88">
-        <v>0.03657614560793543</v>
+        <v>0.01663176851201086</v>
       </c>
       <c r="G88">
-        <v>0.02195940214388874</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01624932714284749</v>
+      </c>
+      <c r="H88">
+        <v>-0.006231722329937927</v>
+      </c>
+      <c r="I88">
+        <v>0.04017968017723642</v>
+      </c>
+      <c r="J88">
+        <v>0.08249544201663439</v>
+      </c>
+      <c r="K88">
+        <v>-0.08254080431199949</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.3873915966058114</v>
+        <v>0.3937774748251255</v>
       </c>
       <c r="C89">
-        <v>0.1153320691133438</v>
+        <v>0.1101894148229152</v>
       </c>
       <c r="D89">
-        <v>-0.1104091919544007</v>
+        <v>-0.02344118950032968</v>
       </c>
       <c r="E89">
-        <v>-0.04028832098069357</v>
+        <v>0.02695277755785904</v>
       </c>
       <c r="F89">
-        <v>-0.06178139257426334</v>
+        <v>-0.05774006052121244</v>
       </c>
       <c r="G89">
-        <v>-0.07066739382410402</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01966901944850685</v>
+      </c>
+      <c r="H89">
+        <v>-0.01226068107617729</v>
+      </c>
+      <c r="I89">
+        <v>-0.7302466587212639</v>
+      </c>
+      <c r="J89">
+        <v>0.1144694608896418</v>
+      </c>
+      <c r="K89">
+        <v>-0.01382666671944149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.2998573860807929</v>
+        <v>0.3127288758896556</v>
       </c>
       <c r="C90">
-        <v>0.05011319605201756</v>
+        <v>0.06839422394699068</v>
       </c>
       <c r="D90">
-        <v>-0.003049110292393169</v>
+        <v>-0.006713569473616637</v>
       </c>
       <c r="E90">
-        <v>-0.03801965903456326</v>
+        <v>-0.02006226887098067</v>
       </c>
       <c r="F90">
-        <v>-0.04579267507044639</v>
+        <v>-0.02941453734555725</v>
       </c>
       <c r="G90">
-        <v>0.02619369927022451</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01551960036899882</v>
+      </c>
+      <c r="H90">
+        <v>0.009970530554091174</v>
+      </c>
+      <c r="I90">
+        <v>0.08565333482182755</v>
+      </c>
+      <c r="J90">
+        <v>-0.01889254492118152</v>
+      </c>
+      <c r="K90">
+        <v>0.0008867598630454524</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.04001712641107036</v>
+        <v>0.05205179868804149</v>
       </c>
       <c r="C91">
-        <v>-0.1195548831442336</v>
+        <v>-0.1059402881067636</v>
       </c>
       <c r="D91">
-        <v>-0.04518103524355069</v>
+        <v>0.03644913100523584</v>
       </c>
       <c r="E91">
-        <v>0.1288724594651996</v>
+        <v>-0.0339698001521452</v>
       </c>
       <c r="F91">
-        <v>-0.03533972994976654</v>
+        <v>0.07832003599635833</v>
       </c>
       <c r="G91">
-        <v>-0.006188239472232012</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.08525107272897654</v>
+      </c>
+      <c r="H91">
+        <v>-0.02136068239627849</v>
+      </c>
+      <c r="I91">
+        <v>0.0175397245240672</v>
+      </c>
+      <c r="J91">
+        <v>0.04423004516020681</v>
+      </c>
+      <c r="K91">
+        <v>-0.04883060832781701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3709872738472764</v>
+        <v>0.3541293350184151</v>
       </c>
       <c r="C92">
-        <v>0.1389428559492429</v>
+        <v>0.1307408375832876</v>
       </c>
       <c r="D92">
-        <v>0.008900778694837606</v>
+        <v>-0.04255197015799111</v>
       </c>
       <c r="E92">
-        <v>-0.01006816815660419</v>
+        <v>0.04599757030479383</v>
       </c>
       <c r="F92">
-        <v>0.09257688710219095</v>
+        <v>-0.05533958911877428</v>
       </c>
       <c r="G92">
-        <v>-0.04111599301069285</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0282518746908488</v>
+      </c>
+      <c r="H92">
+        <v>0.08409709137240756</v>
+      </c>
+      <c r="I92">
+        <v>0.1590738003794033</v>
+      </c>
+      <c r="J92">
+        <v>-0.007763834710433048</v>
+      </c>
+      <c r="K92">
+        <v>0.06142603084806514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.2982260933735245</v>
+        <v>0.3089571373112813</v>
       </c>
       <c r="C93">
-        <v>0.09991722929693671</v>
+        <v>0.1128074065464554</v>
       </c>
       <c r="D93">
-        <v>-0.02916524566599882</v>
+        <v>0.003111577687163402</v>
       </c>
       <c r="E93">
-        <v>-0.02503220322327658</v>
+        <v>-0.001374094274617444</v>
       </c>
       <c r="F93">
-        <v>-0.02848625217548689</v>
+        <v>-0.0300654581098888</v>
       </c>
       <c r="G93">
-        <v>-0.041185682945786</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05457485846587692</v>
+      </c>
+      <c r="H93">
+        <v>0.03333631569771067</v>
+      </c>
+      <c r="I93">
+        <v>0.1083132525147978</v>
+      </c>
+      <c r="J93">
+        <v>-0.02353091592466757</v>
+      </c>
+      <c r="K93">
+        <v>-0.04229020867770629</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.08290753449968249</v>
+        <v>0.07686429478470282</v>
       </c>
       <c r="C94">
-        <v>-0.2274215633591309</v>
+        <v>-0.18828454235423</v>
       </c>
       <c r="D94">
-        <v>-0.1535908552271788</v>
+        <v>0.09046481786371893</v>
       </c>
       <c r="E94">
-        <v>0.4047053469998823</v>
+        <v>-0.0007392238583477758</v>
       </c>
       <c r="F94">
-        <v>-0.1471508215348178</v>
+        <v>0.2586911054985306</v>
       </c>
       <c r="G94">
-        <v>-0.3280081052275571</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.4513613541088972</v>
+      </c>
+      <c r="H94">
+        <v>-0.211464988439875</v>
+      </c>
+      <c r="I94">
+        <v>-0.1256297488806644</v>
+      </c>
+      <c r="J94">
+        <v>0.2703877305273532</v>
+      </c>
+      <c r="K94">
+        <v>0.5332908877213864</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.04569555389254853</v>
+        <v>0.03777635050972605</v>
       </c>
       <c r="C95">
-        <v>-0.07801069709897585</v>
+        <v>-0.1253961847904051</v>
       </c>
       <c r="D95">
-        <v>-0.006079868759416965</v>
+        <v>0.03910893884298121</v>
       </c>
       <c r="E95">
-        <v>-0.002900745251902494</v>
+        <v>0.04371913667802736</v>
       </c>
       <c r="F95">
-        <v>0.0766518743791819</v>
+        <v>0.04374756643053619</v>
       </c>
       <c r="G95">
-        <v>0.1592041416580324</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.1095681766184716</v>
+      </c>
+      <c r="H95">
+        <v>0.06371009950276986</v>
+      </c>
+      <c r="I95">
+        <v>-0.1437406097622698</v>
+      </c>
+      <c r="J95">
+        <v>0.1860137322178145</v>
+      </c>
+      <c r="K95">
+        <v>-0.3706622125472339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.009622439610654633</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.01630580639368184</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.01701164792662502</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.03647886207916808</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>-0.02419732520845064</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.04369114547812919</v>
+      </c>
+      <c r="H97">
+        <v>0.004928779468051959</v>
+      </c>
+      <c r="I97">
+        <v>-0.02036433726903829</v>
+      </c>
+      <c r="J97">
+        <v>-0.0005087834595502116</v>
+      </c>
+      <c r="K97">
+        <v>0.02414189643418013</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08430811942807567</v>
+        <v>0.1321142852254861</v>
       </c>
       <c r="C98">
-        <v>-0.144878953332166</v>
+        <v>-0.1581864626792039</v>
       </c>
       <c r="D98">
-        <v>-0.07345738874675391</v>
+        <v>0.07783141302515872</v>
       </c>
       <c r="E98">
-        <v>-0.08940667131533556</v>
+        <v>-0.03377844759548254</v>
       </c>
       <c r="F98">
-        <v>0.09551242488380658</v>
+        <v>0.1466232835070779</v>
       </c>
       <c r="G98">
-        <v>0.2387845566583914</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3709918381796628</v>
+      </c>
+      <c r="H98">
+        <v>-0.3023243572634883</v>
+      </c>
+      <c r="I98">
+        <v>0.08511726685487749</v>
+      </c>
+      <c r="J98">
+        <v>-0.1108752070503746</v>
+      </c>
+      <c r="K98">
+        <v>0.1943766353573539</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.004405190232902011</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.02078675972898118</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.004890702408463989</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.004954069182810095</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.03239747353285333</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.0164775269483552</v>
+      </c>
+      <c r="H99">
+        <v>0.07190427165359402</v>
+      </c>
+      <c r="I99">
+        <v>-0.02346683498748944</v>
+      </c>
+      <c r="J99">
+        <v>-0.005940471628428462</v>
+      </c>
+      <c r="K99">
+        <v>0.1725175152716141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.02150030419238393</v>
+        <v>0.01414199390143433</v>
       </c>
       <c r="C101">
-        <v>-0.05375710799051325</v>
+        <v>-0.07511613172823217</v>
       </c>
       <c r="D101">
-        <v>-0.02127144676890591</v>
+        <v>0.04059284342050819</v>
       </c>
       <c r="E101">
-        <v>-0.07456585160652864</v>
+        <v>-0.04507778551722024</v>
       </c>
       <c r="F101">
-        <v>0.02675579380436388</v>
+        <v>-0.04425485235698545</v>
       </c>
       <c r="G101">
-        <v>0.07319664851838101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1241933961179143</v>
+      </c>
+      <c r="H101">
+        <v>0.3038474432659915</v>
+      </c>
+      <c r="I101">
+        <v>-0.05139298040867486</v>
+      </c>
+      <c r="J101">
+        <v>0.1792813969614306</v>
+      </c>
+      <c r="K101">
+        <v>0.2435496801166358</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.01527611674554394</v>
+        <v>0.004921556097808136</v>
       </c>
       <c r="C102">
-        <v>-0.07008497740279805</v>
+        <v>-0.03162959200390216</v>
       </c>
       <c r="D102">
-        <v>-0.02359201521454208</v>
+        <v>0.008281415356905788</v>
       </c>
       <c r="E102">
-        <v>0.05841453838389298</v>
+        <v>-0.01058544623677474</v>
       </c>
       <c r="F102">
-        <v>-0.03137004357944233</v>
+        <v>0.02051887123063159</v>
       </c>
       <c r="G102">
-        <v>0.002183781875478526</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.03849683949670407</v>
+      </c>
+      <c r="H102">
+        <v>0.007618315602945013</v>
+      </c>
+      <c r="I102">
+        <v>-0.01814397936621071</v>
+      </c>
+      <c r="J102">
+        <v>-0.01110818346947078</v>
+      </c>
+      <c r="K102">
+        <v>0.02010160624892201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
